--- a/DATA/AMTD_stock_data.xlsx
+++ b/DATA/AMTD_stock_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1101"/>
+  <dimension ref="A1:G1102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25776,6 +25776,29 @@
         <v>72400</v>
       </c>
     </row>
+    <row r="1102">
+      <c r="A1102" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="C1102" t="n">
+        <v>1.840000033378601</v>
+      </c>
+      <c r="D1102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>1.789999961853027</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>1.789999961853027</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>25600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
